--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_马丁组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andubu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -91,9 +91,6 @@
     <t>马丁组</t>
   </si>
   <si>
-    <t>纪维玉</t>
-  </si>
-  <si>
     <t>能</t>
   </si>
   <si>
@@ -151,6 +148,14 @@
   </si>
   <si>
     <t>【房东PC】集中式房型照片图片放大，设置封面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +927,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1013,16 +1018,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="18">
         <v>42524</v>
@@ -1041,20 +1046,24 @@
         <v>22</v>
       </c>
       <c r="L2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="18">
+        <v>42527</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="34" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="39" t="s">
         <v>25</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>26</v>
       </c>
       <c r="T2" s="40"/>
     </row>
@@ -1063,13 +1072,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>20</v>
@@ -1091,17 +1100,21 @@
         <v>22</v>
       </c>
       <c r="L3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="18">
+        <v>42527</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>23</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="34" t="s">
-        <v>24</v>
       </c>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S3" s="39"/>
       <c r="T3" s="40"/>
@@ -1111,13 +1124,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>20</v>
@@ -1139,17 +1152,21 @@
         <v>22</v>
       </c>
       <c r="L4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="18">
+        <v>42527</v>
+      </c>
+      <c r="O4" s="34" t="s">
         <v>23</v>
-      </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="34" t="s">
-        <v>24</v>
       </c>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S4" s="39"/>
       <c r="T4" s="40"/>
@@ -1159,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>20</v>
@@ -1187,17 +1204,21 @@
         <v>22</v>
       </c>
       <c r="L5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="18">
+        <v>42527</v>
+      </c>
+      <c r="O5" s="34" t="s">
         <v>23</v>
-      </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="34" t="s">
-        <v>24</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" s="39"/>
       <c r="T5" s="40"/>
@@ -5653,28 +5674,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
